--- a/web/files/excel/import-kho-nhom.xlsx
+++ b/web/files/excel/import-kho-nhom.xlsx
@@ -1,19 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\webcuanhom\web\files\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E81B8137-0E28-4170-A352-8FB6ED60C62E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{897F6A3B-18AC-438E-8782-66D994D8BCD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hướng dẫn" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="114">
   <si>
     <t>DANH SÁCH KHO NHÔM</t>
   </si>
@@ -229,13 +231,198 @@
   </si>
   <si>
     <t>Khối lượng</t>
+  </si>
+  <si>
+    <t>Mã hệ nhôm</t>
+  </si>
+  <si>
+    <t>XF55</t>
+  </si>
+  <si>
+    <t>Tồn kho (cây)</t>
+  </si>
+  <si>
+    <t>Chặn trên &lt; (không giới hạn nhập 0)</t>
+  </si>
+  <si>
+    <t>Chặn dưới &gt; (không giới hạn nhập 0)</t>
+  </si>
+  <si>
+    <t>Chiều dài
+(mm)</t>
+  </si>
+  <si>
+    <t>Khối lượng
+(kg)</t>
+  </si>
+  <si>
+    <t>Đơn giá</t>
+  </si>
+  <si>
+    <t>Cho cửa sổ</t>
+  </si>
+  <si>
+    <t>Cho cửa đi</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Chiều dài (mm)</t>
+  </si>
+  <si>
+    <t>Khối lượng (kg)</t>
+  </si>
+  <si>
+    <t>HƯỚNG DẪN NHẬP LIỆU CHO MẪU</t>
+  </si>
+  <si>
+    <t>Cột dữ liệu</t>
+  </si>
+  <si>
+    <t>Tên cột dữ liệu</t>
+  </si>
+  <si>
+    <t>Qui tắc nhập</t>
+  </si>
+  <si>
+    <t>Nhập x nếu là cây nhôm mới, nếu chỉ nhập tồn kho thì không nhập x</t>
+  </si>
+  <si>
+    <t>Bắt buộc nhập</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Nhập mã hệ nhôm tương ứng, nếu mã hệ nhôm để trống hoặc mã không tồn tại sẽ không import được, mã hệ nhôm tra cứu trong mục </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Mẫu cửa-&gt;hệ nhôm</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, nếu là mã hệ nhôm mới phải nhập trước trong mục </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Mẫu cửa-&gt;hệ nhôm </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>để lẫy mã.</t>
+    </r>
+  </si>
+  <si>
+    <t>Nhập mã cây nhôm phải giống với mã cây nhôm trong phần mềm DOWES để khi import dữ liệu sẽ được tham chiếu đến đúng cây nhôm. Nếu để trống phần mềm sẽ tự tạo một mã nhôm ngẫu nhiên.</t>
+  </si>
+  <si>
+    <t>Nhập tên cây nhôm</t>
+  </si>
+  <si>
+    <t>Nhập chiều dài cây nhôm mới. Nếu không nhập sẽ lấy chiều dài mặc định được cấu hình trong phần mềm.</t>
+  </si>
+  <si>
+    <t>Nhập số lượng tồn kho, nếu chưa có thì nhập 0.</t>
+  </si>
+  <si>
+    <t>Nhập khối lượng của cây nhôm theo kg, nếu sử dụng cây nhôm để bán lẻ và báo giá thì phải nhập khối lượng mới tính được giá.</t>
+  </si>
+  <si>
+    <t>Nếu cây nhôm dùng được cho hệ cửa đi thì nhập x (không có thì để trống)</t>
+  </si>
+  <si>
+    <t>Nếu nhôm dùng được cho hệ cửa sổ thì nhập x (không có thì để trống)</t>
+  </si>
+  <si>
+    <t>Nhập ghi chú thêm (nếu có)</t>
+  </si>
+  <si>
+    <t>Chiều dài tối đa chừa lại cho nhôm dư (không giới hạn nhập 0)</t>
+  </si>
+  <si>
+    <t>Chiều dài tối thiểu có thể cắt nếu có chặn trên (không giới hạn nhập 0)</t>
+  </si>
+  <si>
+    <t>Nhập đơn giá cho cây nhôm, phải nhập nếu sử dụng chức năng bán lẻ và báo giá</t>
+  </si>
+  <si>
+    <t>Độ dày (mm)</t>
+  </si>
+  <si>
+    <t>Đơn giá
+(VND/kg)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -262,8 +449,37 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -276,8 +492,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -331,11 +553,44 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -368,6 +623,61 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -657,10 +967,1993 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:N42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="J3" sqref="J3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7.140625" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" customWidth="1"/>
+    <col min="5" max="5" width="27.5703125" customWidth="1"/>
+    <col min="6" max="8" width="12.42578125" customWidth="1"/>
+    <col min="10" max="10" width="21.42578125" customWidth="1"/>
+    <col min="11" max="11" width="9.42578125" customWidth="1"/>
+    <col min="12" max="12" width="6.42578125" customWidth="1"/>
+    <col min="13" max="13" width="11.7109375" customWidth="1"/>
+    <col min="14" max="14" width="11.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="29"/>
+    </row>
+    <row r="2" spans="1:14" ht="63" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="6">
+        <v>5900</v>
+      </c>
+      <c r="G3" s="6">
+        <v>0</v>
+      </c>
+      <c r="H3" s="6">
+        <v>0</v>
+      </c>
+      <c r="I3" s="7">
+        <v>1</v>
+      </c>
+      <c r="J3" s="9">
+        <v>215000</v>
+      </c>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="11">
+        <v>0</v>
+      </c>
+      <c r="N3" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="6">
+        <v>5500</v>
+      </c>
+      <c r="G4" s="6">
+        <v>0</v>
+      </c>
+      <c r="H4" s="6">
+        <v>0</v>
+      </c>
+      <c r="I4" s="7">
+        <v>10</v>
+      </c>
+      <c r="J4" s="9">
+        <v>215000</v>
+      </c>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="11">
+        <v>0</v>
+      </c>
+      <c r="N4" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="6">
+        <v>5900</v>
+      </c>
+      <c r="G5" s="6">
+        <v>0</v>
+      </c>
+      <c r="H5" s="6">
+        <v>0</v>
+      </c>
+      <c r="I5" s="7">
+        <v>0</v>
+      </c>
+      <c r="J5" s="9">
+        <v>352200</v>
+      </c>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="11">
+        <v>0</v>
+      </c>
+      <c r="N5" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="6">
+        <v>1000</v>
+      </c>
+      <c r="G6" s="6">
+        <v>0</v>
+      </c>
+      <c r="H6" s="6">
+        <v>0</v>
+      </c>
+      <c r="I6" s="7">
+        <v>5</v>
+      </c>
+      <c r="J6" s="9">
+        <v>352200</v>
+      </c>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="11">
+        <v>0</v>
+      </c>
+      <c r="N6" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>5</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="6">
+        <v>1500</v>
+      </c>
+      <c r="G7" s="6">
+        <v>0</v>
+      </c>
+      <c r="H7" s="6">
+        <v>0</v>
+      </c>
+      <c r="I7" s="7">
+        <v>20</v>
+      </c>
+      <c r="J7" s="9">
+        <v>352200</v>
+      </c>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="11">
+        <v>0</v>
+      </c>
+      <c r="N7" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>6</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="6">
+        <v>5900</v>
+      </c>
+      <c r="G8" s="6">
+        <v>0</v>
+      </c>
+      <c r="H8" s="6">
+        <v>0</v>
+      </c>
+      <c r="I8" s="7">
+        <v>0</v>
+      </c>
+      <c r="J8" s="9">
+        <v>385680</v>
+      </c>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="11">
+        <v>0</v>
+      </c>
+      <c r="N8" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>7</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="6">
+        <v>5900</v>
+      </c>
+      <c r="G9" s="6">
+        <v>0</v>
+      </c>
+      <c r="H9" s="6">
+        <v>0</v>
+      </c>
+      <c r="I9" s="7">
+        <v>0</v>
+      </c>
+      <c r="J9" s="9">
+        <v>1712160</v>
+      </c>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="11">
+        <v>0</v>
+      </c>
+      <c r="N9" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>8</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="6">
+        <v>5900</v>
+      </c>
+      <c r="G10" s="6">
+        <v>0</v>
+      </c>
+      <c r="H10" s="6">
+        <v>0</v>
+      </c>
+      <c r="I10" s="7">
+        <v>0</v>
+      </c>
+      <c r="J10" s="9">
+        <v>2015520</v>
+      </c>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="11">
+        <v>0</v>
+      </c>
+      <c r="N10" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>9</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" s="6">
+        <v>5900</v>
+      </c>
+      <c r="G11" s="6">
+        <v>0</v>
+      </c>
+      <c r="H11" s="6">
+        <v>0</v>
+      </c>
+      <c r="I11" s="7">
+        <v>3</v>
+      </c>
+      <c r="J11" s="9">
+        <v>2603040</v>
+      </c>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="11">
+        <v>0</v>
+      </c>
+      <c r="N11" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>10</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" s="6">
+        <v>5900</v>
+      </c>
+      <c r="G12" s="6">
+        <v>0</v>
+      </c>
+      <c r="H12" s="6">
+        <v>0</v>
+      </c>
+      <c r="I12" s="7">
+        <v>0</v>
+      </c>
+      <c r="J12" s="9">
+        <v>352200</v>
+      </c>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="11">
+        <v>0</v>
+      </c>
+      <c r="N12" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>11</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" s="6">
+        <v>5900</v>
+      </c>
+      <c r="G13" s="6">
+        <v>0</v>
+      </c>
+      <c r="H13" s="6">
+        <v>0</v>
+      </c>
+      <c r="I13" s="7">
+        <v>0</v>
+      </c>
+      <c r="J13" s="9">
+        <v>1201200</v>
+      </c>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="11">
+        <v>0</v>
+      </c>
+      <c r="N13" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>12</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F14" s="6">
+        <v>5900</v>
+      </c>
+      <c r="G14" s="6">
+        <v>0</v>
+      </c>
+      <c r="H14" s="6">
+        <v>0</v>
+      </c>
+      <c r="I14" s="7">
+        <v>0</v>
+      </c>
+      <c r="J14" s="9">
+        <v>1375200</v>
+      </c>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="11">
+        <v>0</v>
+      </c>
+      <c r="N14" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>13</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F15" s="6">
+        <v>5900</v>
+      </c>
+      <c r="G15" s="6">
+        <v>0</v>
+      </c>
+      <c r="H15" s="6">
+        <v>0</v>
+      </c>
+      <c r="I15" s="7">
+        <v>4</v>
+      </c>
+      <c r="J15" s="9">
+        <v>5610000</v>
+      </c>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="11">
+        <v>0</v>
+      </c>
+      <c r="N15" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>14</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F16" s="6">
+        <v>5900</v>
+      </c>
+      <c r="G16" s="6">
+        <v>0</v>
+      </c>
+      <c r="H16" s="6">
+        <v>0</v>
+      </c>
+      <c r="I16" s="7">
+        <v>5</v>
+      </c>
+      <c r="J16" s="9">
+        <v>4435320</v>
+      </c>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="11">
+        <v>0</v>
+      </c>
+      <c r="N16" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>15</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F17" s="6">
+        <v>5900</v>
+      </c>
+      <c r="G17" s="6">
+        <v>0</v>
+      </c>
+      <c r="H17" s="6">
+        <v>0</v>
+      </c>
+      <c r="I17" s="7">
+        <v>0</v>
+      </c>
+      <c r="J17" s="9">
+        <v>385680</v>
+      </c>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="11">
+        <v>0</v>
+      </c>
+      <c r="N17" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>16</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F18" s="6">
+        <v>5900</v>
+      </c>
+      <c r="G18" s="6">
+        <v>0</v>
+      </c>
+      <c r="H18" s="6">
+        <v>0</v>
+      </c>
+      <c r="I18" s="7">
+        <v>0</v>
+      </c>
+      <c r="J18" s="9">
+        <v>476160</v>
+      </c>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="11">
+        <v>0</v>
+      </c>
+      <c r="N18" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>17</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F19" s="6">
+        <v>5900</v>
+      </c>
+      <c r="G19" s="6">
+        <v>0</v>
+      </c>
+      <c r="H19" s="6">
+        <v>0</v>
+      </c>
+      <c r="I19" s="7">
+        <v>3</v>
+      </c>
+      <c r="J19" s="9">
+        <v>6046560</v>
+      </c>
+      <c r="K19" s="11"/>
+      <c r="L19" s="11"/>
+      <c r="M19" s="11">
+        <v>0</v>
+      </c>
+      <c r="N19" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>18</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F20" s="6">
+        <v>5900</v>
+      </c>
+      <c r="G20" s="6">
+        <v>0</v>
+      </c>
+      <c r="H20" s="6">
+        <v>0</v>
+      </c>
+      <c r="I20" s="7">
+        <v>0</v>
+      </c>
+      <c r="J20" s="9">
+        <v>789960</v>
+      </c>
+      <c r="K20" s="11"/>
+      <c r="L20" s="11"/>
+      <c r="M20" s="11">
+        <v>0</v>
+      </c>
+      <c r="N20" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>19</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F21" s="6">
+        <v>5900</v>
+      </c>
+      <c r="G21" s="6">
+        <v>0</v>
+      </c>
+      <c r="H21" s="6">
+        <v>0</v>
+      </c>
+      <c r="I21" s="7">
+        <v>0</v>
+      </c>
+      <c r="J21" s="9">
+        <v>1230480</v>
+      </c>
+      <c r="K21" s="11"/>
+      <c r="L21" s="11"/>
+      <c r="M21" s="11">
+        <v>0</v>
+      </c>
+      <c r="N21" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <v>20</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F22" s="6">
+        <v>5900</v>
+      </c>
+      <c r="G22" s="6">
+        <v>0</v>
+      </c>
+      <c r="H22" s="6">
+        <v>0</v>
+      </c>
+      <c r="I22" s="7">
+        <v>2</v>
+      </c>
+      <c r="J22" s="9">
+        <v>8560800</v>
+      </c>
+      <c r="K22" s="11"/>
+      <c r="L22" s="11"/>
+      <c r="M22" s="11">
+        <v>0</v>
+      </c>
+      <c r="N22" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <v>21</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F23" s="6">
+        <v>5900</v>
+      </c>
+      <c r="G23" s="6">
+        <v>0</v>
+      </c>
+      <c r="H23" s="6">
+        <v>0</v>
+      </c>
+      <c r="I23" s="7">
+        <v>1</v>
+      </c>
+      <c r="J23" s="9">
+        <v>2257200</v>
+      </c>
+      <c r="K23" s="11"/>
+      <c r="L23" s="11"/>
+      <c r="M23" s="11">
+        <v>0</v>
+      </c>
+      <c r="N23" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <v>22</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F24" s="6">
+        <v>5900</v>
+      </c>
+      <c r="G24" s="6">
+        <v>0</v>
+      </c>
+      <c r="H24" s="6">
+        <v>0</v>
+      </c>
+      <c r="I24" s="7">
+        <v>2</v>
+      </c>
+      <c r="J24" s="9">
+        <v>745920</v>
+      </c>
+      <c r="K24" s="11"/>
+      <c r="L24" s="11"/>
+      <c r="M24" s="11">
+        <v>0</v>
+      </c>
+      <c r="N24" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <v>23</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F25" s="6">
+        <v>5900</v>
+      </c>
+      <c r="G25" s="6">
+        <v>0</v>
+      </c>
+      <c r="H25" s="6">
+        <v>0</v>
+      </c>
+      <c r="I25" s="7">
+        <v>3</v>
+      </c>
+      <c r="J25" s="9">
+        <v>1491840</v>
+      </c>
+      <c r="K25" s="11"/>
+      <c r="L25" s="11"/>
+      <c r="M25" s="11">
+        <v>0</v>
+      </c>
+      <c r="N25" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
+        <v>24</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F26" s="6">
+        <v>5900</v>
+      </c>
+      <c r="G26" s="6">
+        <v>0</v>
+      </c>
+      <c r="H26" s="6">
+        <v>0</v>
+      </c>
+      <c r="I26" s="7">
+        <v>10</v>
+      </c>
+      <c r="J26" s="9">
+        <v>514800</v>
+      </c>
+      <c r="K26" s="11"/>
+      <c r="L26" s="11"/>
+      <c r="M26" s="11">
+        <v>0</v>
+      </c>
+      <c r="N26" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <v>25</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F27" s="6">
+        <v>5900</v>
+      </c>
+      <c r="G27" s="6">
+        <v>0</v>
+      </c>
+      <c r="H27" s="6">
+        <v>0</v>
+      </c>
+      <c r="I27" s="7">
+        <v>8</v>
+      </c>
+      <c r="J27" s="9">
+        <v>10909920</v>
+      </c>
+      <c r="K27" s="11"/>
+      <c r="L27" s="11"/>
+      <c r="M27" s="11">
+        <v>0</v>
+      </c>
+      <c r="N27" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <v>26</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F28" s="6">
+        <v>5900</v>
+      </c>
+      <c r="G28" s="6">
+        <v>0</v>
+      </c>
+      <c r="H28" s="6">
+        <v>0</v>
+      </c>
+      <c r="I28" s="7">
+        <v>8</v>
+      </c>
+      <c r="J28" s="9">
+        <v>15395520</v>
+      </c>
+      <c r="K28" s="11"/>
+      <c r="L28" s="11"/>
+      <c r="M28" s="11">
+        <v>0</v>
+      </c>
+      <c r="N28" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
+        <v>27</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F29" s="6">
+        <v>5900</v>
+      </c>
+      <c r="G29" s="6">
+        <v>0</v>
+      </c>
+      <c r="H29" s="6">
+        <v>0</v>
+      </c>
+      <c r="I29" s="7">
+        <v>11</v>
+      </c>
+      <c r="J29" s="9">
+        <v>1599840</v>
+      </c>
+      <c r="K29" s="11"/>
+      <c r="L29" s="11"/>
+      <c r="M29" s="11">
+        <v>0</v>
+      </c>
+      <c r="N29" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
+        <v>28</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F30" s="6">
+        <v>5900</v>
+      </c>
+      <c r="G30" s="6">
+        <v>0</v>
+      </c>
+      <c r="H30" s="6">
+        <v>0</v>
+      </c>
+      <c r="I30" s="7">
+        <v>2</v>
+      </c>
+      <c r="J30" s="9">
+        <v>374400</v>
+      </c>
+      <c r="K30" s="11"/>
+      <c r="L30" s="11"/>
+      <c r="M30" s="11">
+        <v>0</v>
+      </c>
+      <c r="N30" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
+        <v>29</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F31" s="6">
+        <v>5900</v>
+      </c>
+      <c r="G31" s="6">
+        <v>0</v>
+      </c>
+      <c r="H31" s="6">
+        <v>0</v>
+      </c>
+      <c r="I31" s="7">
+        <v>3</v>
+      </c>
+      <c r="J31" s="9">
+        <v>14108640</v>
+      </c>
+      <c r="K31" s="11"/>
+      <c r="L31" s="11"/>
+      <c r="M31" s="11">
+        <v>0</v>
+      </c>
+      <c r="N31" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
+        <v>30</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F32" s="6">
+        <v>5900</v>
+      </c>
+      <c r="G32" s="6">
+        <v>0</v>
+      </c>
+      <c r="H32" s="6">
+        <v>0</v>
+      </c>
+      <c r="I32" s="7">
+        <v>1</v>
+      </c>
+      <c r="J32" s="9">
+        <v>704400</v>
+      </c>
+      <c r="K32" s="11"/>
+      <c r="L32" s="11"/>
+      <c r="M32" s="11">
+        <v>0</v>
+      </c>
+      <c r="N32" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="13">
+        <v>31</v>
+      </c>
+      <c r="B33" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="C33" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="D33" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="E33" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="F33" s="15">
+        <v>5900</v>
+      </c>
+      <c r="G33" s="15">
+        <v>0</v>
+      </c>
+      <c r="H33" s="6">
+        <v>0</v>
+      </c>
+      <c r="I33" s="16">
+        <v>3</v>
+      </c>
+      <c r="J33" s="17">
+        <v>2062800</v>
+      </c>
+      <c r="K33" s="11"/>
+      <c r="L33" s="11"/>
+      <c r="M33" s="11">
+        <v>0</v>
+      </c>
+      <c r="N33" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
+        <v>32</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F34" s="6">
+        <v>5900</v>
+      </c>
+      <c r="G34" s="6">
+        <v>0</v>
+      </c>
+      <c r="H34" s="6">
+        <v>0</v>
+      </c>
+      <c r="I34" s="7">
+        <v>1</v>
+      </c>
+      <c r="J34" s="9">
+        <v>114000</v>
+      </c>
+      <c r="K34" s="11"/>
+      <c r="L34" s="11"/>
+      <c r="M34" s="11">
+        <v>0</v>
+      </c>
+      <c r="N34" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="3">
+        <v>33</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F35" s="6">
+        <v>5900</v>
+      </c>
+      <c r="G35" s="6">
+        <v>0</v>
+      </c>
+      <c r="H35" s="6">
+        <v>0</v>
+      </c>
+      <c r="I35" s="7">
+        <v>2</v>
+      </c>
+      <c r="J35" s="9">
+        <v>787200</v>
+      </c>
+      <c r="K35" s="11"/>
+      <c r="L35" s="11"/>
+      <c r="M35" s="11">
+        <v>0</v>
+      </c>
+      <c r="N35" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="3">
+        <v>34</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F36" s="6">
+        <v>5900</v>
+      </c>
+      <c r="G36" s="6">
+        <v>0</v>
+      </c>
+      <c r="H36" s="6">
+        <v>0</v>
+      </c>
+      <c r="I36" s="7">
+        <v>1</v>
+      </c>
+      <c r="J36" s="9">
+        <v>309600</v>
+      </c>
+      <c r="K36" s="11"/>
+      <c r="L36" s="11"/>
+      <c r="M36" s="11">
+        <v>0</v>
+      </c>
+      <c r="N36" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
+        <v>35</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F37" s="6">
+        <v>5900</v>
+      </c>
+      <c r="G37" s="6">
+        <v>0</v>
+      </c>
+      <c r="H37" s="6">
+        <v>0</v>
+      </c>
+      <c r="I37" s="7">
+        <v>1</v>
+      </c>
+      <c r="J37" s="9">
+        <v>289200</v>
+      </c>
+      <c r="K37" s="11"/>
+      <c r="L37" s="11"/>
+      <c r="M37" s="11">
+        <v>0</v>
+      </c>
+      <c r="N37" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
+        <v>36</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F38" s="6">
+        <v>5900</v>
+      </c>
+      <c r="G38" s="6">
+        <v>0</v>
+      </c>
+      <c r="H38" s="6">
+        <v>0</v>
+      </c>
+      <c r="I38" s="7">
+        <v>3</v>
+      </c>
+      <c r="J38" s="9">
+        <v>589800</v>
+      </c>
+      <c r="K38" s="11"/>
+      <c r="L38" s="11"/>
+      <c r="M38" s="11">
+        <v>0</v>
+      </c>
+      <c r="N38" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="3">
+        <v>37</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F39" s="6">
+        <v>5900</v>
+      </c>
+      <c r="G39" s="6">
+        <v>0</v>
+      </c>
+      <c r="H39" s="6">
+        <v>0</v>
+      </c>
+      <c r="I39" s="7">
+        <v>1</v>
+      </c>
+      <c r="J39" s="9">
+        <v>844795</v>
+      </c>
+      <c r="K39" s="11"/>
+      <c r="L39" s="11"/>
+      <c r="M39" s="11">
+        <v>0</v>
+      </c>
+      <c r="N39" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A40" s="3">
+        <v>38</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F40" s="6">
+        <v>5900</v>
+      </c>
+      <c r="G40" s="6">
+        <v>0</v>
+      </c>
+      <c r="H40" s="6">
+        <v>0</v>
+      </c>
+      <c r="I40" s="7">
+        <v>1</v>
+      </c>
+      <c r="J40" s="9">
+        <v>205800</v>
+      </c>
+      <c r="K40" s="11"/>
+      <c r="L40" s="11"/>
+      <c r="M40" s="11">
+        <v>0</v>
+      </c>
+      <c r="N40" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A41" s="3">
+        <v>39</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F41" s="6">
+        <v>5900</v>
+      </c>
+      <c r="G41" s="6">
+        <v>0</v>
+      </c>
+      <c r="H41" s="6">
+        <v>0</v>
+      </c>
+      <c r="I41" s="7">
+        <v>4</v>
+      </c>
+      <c r="J41" s="9">
+        <v>5139200</v>
+      </c>
+      <c r="K41" s="11"/>
+      <c r="L41" s="11"/>
+      <c r="M41" s="11">
+        <v>0</v>
+      </c>
+      <c r="N41" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A42" s="3">
+        <v>40</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F42" s="6">
+        <v>5900</v>
+      </c>
+      <c r="G42" s="6">
+        <v>0</v>
+      </c>
+      <c r="H42" s="6">
+        <v>0</v>
+      </c>
+      <c r="I42" s="7">
+        <v>0</v>
+      </c>
+      <c r="J42" s="9">
+        <v>932533</v>
+      </c>
+      <c r="K42" s="11"/>
+      <c r="L42" s="11"/>
+      <c r="M42" s="11">
+        <v>0</v>
+      </c>
+      <c r="N42" s="11">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:N1"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="69" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCEBA259-F68E-4EBF-98BA-CB9176F1243B}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:F16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.140625" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.5703125" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" customWidth="1"/>
+    <col min="5" max="5" width="50.140625" customWidth="1"/>
+    <col min="6" max="6" width="17.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="C2" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="D2" s="27" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2" s="27" t="s">
+        <v>97</v>
+      </c>
+      <c r="F2" s="27" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="21">
+        <v>1</v>
+      </c>
+      <c r="B3" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="21"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+    </row>
+    <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="21">
+        <v>2</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="D4" s="21"/>
+      <c r="E4" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="F4" s="20"/>
+    </row>
+    <row r="5" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A5" s="21">
+        <v>3</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="F5" s="20"/>
+    </row>
+    <row r="6" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A6" s="21">
+        <v>4</v>
+      </c>
+      <c r="B6" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="E6" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="F6" s="20"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="21">
+        <v>5</v>
+      </c>
+      <c r="B7" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="E7" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="F7" s="20"/>
+    </row>
+    <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="21">
+        <v>6</v>
+      </c>
+      <c r="B8" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="D8" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="F8" s="20"/>
+    </row>
+    <row r="9" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="21">
+        <v>7</v>
+      </c>
+      <c r="B9" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="D9" s="25"/>
+      <c r="E9" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="F9" s="20"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="21">
+        <v>8</v>
+      </c>
+      <c r="B10" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="D10" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="E10" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="F10" s="20"/>
+    </row>
+    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="21">
+        <v>9</v>
+      </c>
+      <c r="B11" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="D11" s="25"/>
+      <c r="E11" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="F11" s="20"/>
+    </row>
+    <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="21">
+        <v>10</v>
+      </c>
+      <c r="B12" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="C12" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="D12" s="5"/>
+      <c r="E12" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="F12" s="20"/>
+    </row>
+    <row r="13" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="21">
+        <v>11</v>
+      </c>
+      <c r="B13" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="C13" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="D13" s="5"/>
+      <c r="E13" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="F13" s="20"/>
+    </row>
+    <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="21">
+        <v>12</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="C14" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="D14" s="25"/>
+      <c r="E14" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="F14" s="20"/>
+    </row>
+    <row r="15" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="21">
+        <v>13</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="C15" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="D15" s="25"/>
+      <c r="E15" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="F15" s="20"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="21">
+        <v>14</v>
+      </c>
+      <c r="B16" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="C16" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="25"/>
+      <c r="E16" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="F16" s="20"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EFA63E3-2E0A-422B-AFFA-86483BC14FEA}">
+  <dimension ref="A1:N42"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -677,22 +2970,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="14"/>
+      <c r="A1" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="32"/>
+      <c r="N1" s="33"/>
     </row>
     <row r="2" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -2256,7 +4549,6 @@
   <mergeCells count="1">
     <mergeCell ref="A1:N1"/>
   </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/web/files/excel/import-kho-nhom.xlsx
+++ b/web/files/excel/import-kho-nhom.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\webcuanhom\web\files\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AN\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{897F6A3B-18AC-438E-8782-66D994D8BCD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10DED0B2-7B06-4038-9EB5-79AEEB44A430}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="118">
   <si>
     <t>DANH SÁCH KHO NHÔM</t>
   </si>
@@ -416,6 +416,18 @@
   <si>
     <t>Đơn giá
 (VND/kg)</t>
+  </si>
+  <si>
+    <t>Mã màu</t>
+  </si>
+  <si>
+    <t>Xám</t>
+  </si>
+  <si>
+    <t>Sữa</t>
+  </si>
+  <si>
+    <t>Gỗ</t>
   </si>
 </sst>
 </file>
@@ -642,9 +654,6 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -668,6 +677,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -970,10 +982,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N42"/>
+  <dimension ref="A1:O42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -981,16 +993,17 @@
     <col min="1" max="1" width="7.140625" customWidth="1"/>
     <col min="3" max="3" width="15.140625" customWidth="1"/>
     <col min="4" max="4" width="18.28515625" customWidth="1"/>
-    <col min="5" max="5" width="27.5703125" customWidth="1"/>
-    <col min="6" max="8" width="12.42578125" customWidth="1"/>
-    <col min="10" max="10" width="21.42578125" customWidth="1"/>
-    <col min="11" max="11" width="9.42578125" customWidth="1"/>
-    <col min="12" max="12" width="6.42578125" customWidth="1"/>
-    <col min="13" max="13" width="11.7109375" customWidth="1"/>
-    <col min="14" max="14" width="11.5703125" customWidth="1"/>
+    <col min="5" max="5" width="13" customWidth="1"/>
+    <col min="6" max="6" width="27.5703125" customWidth="1"/>
+    <col min="7" max="9" width="12.42578125" customWidth="1"/>
+    <col min="11" max="11" width="21.42578125" customWidth="1"/>
+    <col min="12" max="12" width="9.42578125" customWidth="1"/>
+    <col min="13" max="13" width="6.42578125" customWidth="1"/>
+    <col min="14" max="14" width="11.7109375" customWidth="1"/>
+    <col min="15" max="15" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
@@ -1007,8 +1020,9 @@
       <c r="L1" s="29"/>
       <c r="M1" s="29"/>
       <c r="N1" s="29"/>
-    </row>
-    <row r="2" spans="1:14" ht="63" x14ac:dyDescent="0.25">
+      <c r="O1" s="29"/>
+    </row>
+    <row r="2" spans="1:15" ht="63" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1022,37 +1036,40 @@
         <v>2</v>
       </c>
       <c r="E2" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="F2" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="19" t="s">
+      <c r="G2" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="I2" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="I2" s="12" t="s">
+      <c r="J2" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -1066,37 +1083,42 @@
         <v>13</v>
       </c>
       <c r="E3" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="6">
-        <v>5900</v>
-      </c>
       <c r="G3" s="6">
-        <v>0</v>
+        <v>5900</v>
       </c>
       <c r="H3" s="6">
         <v>0</v>
       </c>
-      <c r="I3" s="7">
+      <c r="I3" s="6">
+        <v>0</v>
+      </c>
+      <c r="J3" s="7">
         <v>1</v>
       </c>
-      <c r="J3" s="9">
+      <c r="K3" s="9">
         <v>215000</v>
       </c>
-      <c r="K3" s="10"/>
       <c r="L3" s="10"/>
-      <c r="M3" s="11">
-        <v>0</v>
-      </c>
+      <c r="M3" s="10"/>
       <c r="N3" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="O3" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>2</v>
       </c>
-      <c r="B4" s="3"/>
+      <c r="B4" s="3" t="s">
+        <v>66</v>
+      </c>
       <c r="C4" s="3" t="s">
         <v>69</v>
       </c>
@@ -1104,33 +1126,36 @@
         <v>13</v>
       </c>
       <c r="E4" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="6">
-        <v>5500</v>
-      </c>
       <c r="G4" s="6">
-        <v>0</v>
+        <v>5900</v>
       </c>
       <c r="H4" s="6">
         <v>0</v>
       </c>
-      <c r="I4" s="7">
+      <c r="I4" s="6">
+        <v>0</v>
+      </c>
+      <c r="J4" s="7">
         <v>10</v>
       </c>
-      <c r="J4" s="9">
+      <c r="K4" s="9">
         <v>215000</v>
       </c>
-      <c r="K4" s="10"/>
       <c r="L4" s="10"/>
-      <c r="M4" s="11">
-        <v>0</v>
-      </c>
+      <c r="M4" s="10"/>
       <c r="N4" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="O4" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>3</v>
       </c>
@@ -1144,33 +1169,36 @@
         <v>16</v>
       </c>
       <c r="E5" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="F5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="6">
-        <v>5900</v>
-      </c>
       <c r="G5" s="6">
-        <v>0</v>
+        <v>5900</v>
       </c>
       <c r="H5" s="6">
         <v>0</v>
       </c>
-      <c r="I5" s="7">
-        <v>0</v>
-      </c>
-      <c r="J5" s="9">
+      <c r="I5" s="6">
+        <v>0</v>
+      </c>
+      <c r="J5" s="7">
+        <v>0</v>
+      </c>
+      <c r="K5" s="9">
         <v>352200</v>
       </c>
-      <c r="K5" s="10"/>
       <c r="L5" s="10"/>
-      <c r="M5" s="11">
-        <v>0</v>
-      </c>
+      <c r="M5" s="10"/>
       <c r="N5" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="O5" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>4</v>
       </c>
@@ -1182,33 +1210,36 @@
         <v>16</v>
       </c>
       <c r="E6" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="F6" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="6">
+      <c r="G6" s="6">
         <v>1000</v>
       </c>
-      <c r="G6" s="6">
-        <v>0</v>
-      </c>
       <c r="H6" s="6">
         <v>0</v>
       </c>
-      <c r="I6" s="7">
+      <c r="I6" s="6">
+        <v>0</v>
+      </c>
+      <c r="J6" s="7">
         <v>5</v>
       </c>
-      <c r="J6" s="9">
+      <c r="K6" s="9">
         <v>352200</v>
       </c>
-      <c r="K6" s="10"/>
       <c r="L6" s="10"/>
-      <c r="M6" s="11">
-        <v>0</v>
-      </c>
+      <c r="M6" s="10"/>
       <c r="N6" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="O6" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>5</v>
       </c>
@@ -1220,33 +1251,36 @@
         <v>16</v>
       </c>
       <c r="E7" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="F7" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="6">
+      <c r="G7" s="6">
         <v>1500</v>
       </c>
-      <c r="G7" s="6">
-        <v>0</v>
-      </c>
       <c r="H7" s="6">
         <v>0</v>
       </c>
-      <c r="I7" s="7">
+      <c r="I7" s="6">
+        <v>0</v>
+      </c>
+      <c r="J7" s="7">
         <v>20</v>
       </c>
-      <c r="J7" s="9">
+      <c r="K7" s="9">
         <v>352200</v>
       </c>
-      <c r="K7" s="10"/>
       <c r="L7" s="10"/>
-      <c r="M7" s="11">
-        <v>0</v>
-      </c>
+      <c r="M7" s="10"/>
       <c r="N7" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="O7" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>6</v>
       </c>
@@ -1260,33 +1294,36 @@
         <v>18</v>
       </c>
       <c r="E8" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="F8" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="6">
-        <v>5900</v>
-      </c>
       <c r="G8" s="6">
-        <v>0</v>
+        <v>5900</v>
       </c>
       <c r="H8" s="6">
         <v>0</v>
       </c>
-      <c r="I8" s="7">
-        <v>0</v>
-      </c>
-      <c r="J8" s="9">
+      <c r="I8" s="6">
+        <v>0</v>
+      </c>
+      <c r="J8" s="7">
+        <v>0</v>
+      </c>
+      <c r="K8" s="9">
         <v>385680</v>
       </c>
-      <c r="K8" s="10"/>
       <c r="L8" s="10"/>
-      <c r="M8" s="11">
-        <v>0</v>
-      </c>
+      <c r="M8" s="10"/>
       <c r="N8" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="O8" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>7</v>
       </c>
@@ -1300,33 +1337,36 @@
         <v>19</v>
       </c>
       <c r="E9" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="F9" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="6">
-        <v>5900</v>
-      </c>
       <c r="G9" s="6">
-        <v>0</v>
+        <v>5900</v>
       </c>
       <c r="H9" s="6">
         <v>0</v>
       </c>
-      <c r="I9" s="7">
-        <v>0</v>
-      </c>
-      <c r="J9" s="9">
+      <c r="I9" s="6">
+        <v>0</v>
+      </c>
+      <c r="J9" s="7">
+        <v>0</v>
+      </c>
+      <c r="K9" s="9">
         <v>1712160</v>
       </c>
-      <c r="K9" s="10"/>
       <c r="L9" s="10"/>
-      <c r="M9" s="11">
-        <v>0</v>
-      </c>
+      <c r="M9" s="10"/>
       <c r="N9" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="O9" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>8</v>
       </c>
@@ -1340,33 +1380,36 @@
         <v>21</v>
       </c>
       <c r="E10" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="F10" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="6">
-        <v>5900</v>
-      </c>
       <c r="G10" s="6">
-        <v>0</v>
+        <v>5900</v>
       </c>
       <c r="H10" s="6">
         <v>0</v>
       </c>
-      <c r="I10" s="7">
-        <v>0</v>
-      </c>
-      <c r="J10" s="9">
+      <c r="I10" s="6">
+        <v>0</v>
+      </c>
+      <c r="J10" s="7">
+        <v>0</v>
+      </c>
+      <c r="K10" s="9">
         <v>2015520</v>
       </c>
-      <c r="K10" s="10"/>
       <c r="L10" s="10"/>
-      <c r="M10" s="11">
-        <v>0</v>
-      </c>
+      <c r="M10" s="10"/>
       <c r="N10" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="O10" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>9</v>
       </c>
@@ -1380,33 +1423,36 @@
         <v>22</v>
       </c>
       <c r="E11" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="F11" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F11" s="6">
-        <v>5900</v>
-      </c>
       <c r="G11" s="6">
-        <v>0</v>
+        <v>5900</v>
       </c>
       <c r="H11" s="6">
         <v>0</v>
       </c>
-      <c r="I11" s="7">
+      <c r="I11" s="6">
+        <v>0</v>
+      </c>
+      <c r="J11" s="7">
         <v>3</v>
       </c>
-      <c r="J11" s="9">
+      <c r="K11" s="9">
         <v>2603040</v>
       </c>
-      <c r="K11" s="10"/>
       <c r="L11" s="10"/>
-      <c r="M11" s="11">
-        <v>0</v>
-      </c>
+      <c r="M11" s="10"/>
       <c r="N11" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="O11" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>10</v>
       </c>
@@ -1420,33 +1466,36 @@
         <v>24</v>
       </c>
       <c r="E12" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="F12" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F12" s="6">
-        <v>5900</v>
-      </c>
       <c r="G12" s="6">
-        <v>0</v>
+        <v>5900</v>
       </c>
       <c r="H12" s="6">
         <v>0</v>
       </c>
-      <c r="I12" s="7">
-        <v>0</v>
-      </c>
-      <c r="J12" s="9">
+      <c r="I12" s="6">
+        <v>0</v>
+      </c>
+      <c r="J12" s="7">
+        <v>0</v>
+      </c>
+      <c r="K12" s="9">
         <v>352200</v>
       </c>
-      <c r="K12" s="10"/>
       <c r="L12" s="10"/>
-      <c r="M12" s="11">
-        <v>0</v>
-      </c>
+      <c r="M12" s="10"/>
       <c r="N12" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="O12" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>11</v>
       </c>
@@ -1460,33 +1509,36 @@
         <v>26</v>
       </c>
       <c r="E13" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="F13" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F13" s="6">
-        <v>5900</v>
-      </c>
       <c r="G13" s="6">
-        <v>0</v>
+        <v>5900</v>
       </c>
       <c r="H13" s="6">
         <v>0</v>
       </c>
-      <c r="I13" s="7">
-        <v>0</v>
-      </c>
-      <c r="J13" s="9">
+      <c r="I13" s="6">
+        <v>0</v>
+      </c>
+      <c r="J13" s="7">
+        <v>0</v>
+      </c>
+      <c r="K13" s="9">
         <v>1201200</v>
       </c>
-      <c r="K13" s="10"/>
       <c r="L13" s="10"/>
-      <c r="M13" s="11">
-        <v>0</v>
-      </c>
+      <c r="M13" s="10"/>
       <c r="N13" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="O13" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>12</v>
       </c>
@@ -1500,33 +1552,36 @@
         <v>28</v>
       </c>
       <c r="E14" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="F14" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F14" s="6">
-        <v>5900</v>
-      </c>
       <c r="G14" s="6">
-        <v>0</v>
+        <v>5900</v>
       </c>
       <c r="H14" s="6">
         <v>0</v>
       </c>
-      <c r="I14" s="7">
-        <v>0</v>
-      </c>
-      <c r="J14" s="9">
+      <c r="I14" s="6">
+        <v>0</v>
+      </c>
+      <c r="J14" s="7">
+        <v>0</v>
+      </c>
+      <c r="K14" s="9">
         <v>1375200</v>
       </c>
-      <c r="K14" s="11"/>
       <c r="L14" s="11"/>
-      <c r="M14" s="11">
-        <v>0</v>
-      </c>
+      <c r="M14" s="11"/>
       <c r="N14" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="O14" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>13</v>
       </c>
@@ -1540,33 +1595,36 @@
         <v>29</v>
       </c>
       <c r="E15" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="F15" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F15" s="6">
-        <v>5900</v>
-      </c>
       <c r="G15" s="6">
-        <v>0</v>
+        <v>5900</v>
       </c>
       <c r="H15" s="6">
         <v>0</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I15" s="6">
+        <v>0</v>
+      </c>
+      <c r="J15" s="7">
         <v>4</v>
       </c>
-      <c r="J15" s="9">
+      <c r="K15" s="9">
         <v>5610000</v>
       </c>
-      <c r="K15" s="11"/>
       <c r="L15" s="11"/>
-      <c r="M15" s="11">
-        <v>0</v>
-      </c>
+      <c r="M15" s="11"/>
       <c r="N15" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="O15" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>14</v>
       </c>
@@ -1580,33 +1638,36 @@
         <v>30</v>
       </c>
       <c r="E16" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="F16" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="F16" s="6">
-        <v>5900</v>
-      </c>
       <c r="G16" s="6">
-        <v>0</v>
+        <v>5900</v>
       </c>
       <c r="H16" s="6">
         <v>0</v>
       </c>
-      <c r="I16" s="7">
+      <c r="I16" s="6">
+        <v>0</v>
+      </c>
+      <c r="J16" s="7">
         <v>5</v>
       </c>
-      <c r="J16" s="9">
+      <c r="K16" s="9">
         <v>4435320</v>
       </c>
-      <c r="K16" s="11"/>
       <c r="L16" s="11"/>
-      <c r="M16" s="11">
-        <v>0</v>
-      </c>
+      <c r="M16" s="11"/>
       <c r="N16" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="O16" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>15</v>
       </c>
@@ -1620,33 +1681,36 @@
         <v>32</v>
       </c>
       <c r="E17" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="F17" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F17" s="6">
-        <v>5900</v>
-      </c>
       <c r="G17" s="6">
-        <v>0</v>
+        <v>5900</v>
       </c>
       <c r="H17" s="6">
         <v>0</v>
       </c>
-      <c r="I17" s="7">
-        <v>0</v>
-      </c>
-      <c r="J17" s="9">
+      <c r="I17" s="6">
+        <v>0</v>
+      </c>
+      <c r="J17" s="7">
+        <v>0</v>
+      </c>
+      <c r="K17" s="9">
         <v>385680</v>
       </c>
-      <c r="K17" s="11"/>
       <c r="L17" s="11"/>
-      <c r="M17" s="11">
-        <v>0</v>
-      </c>
+      <c r="M17" s="11"/>
       <c r="N17" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="O17" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>16</v>
       </c>
@@ -1660,33 +1724,36 @@
         <v>33</v>
       </c>
       <c r="E18" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="F18" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F18" s="6">
-        <v>5900</v>
-      </c>
       <c r="G18" s="6">
-        <v>0</v>
+        <v>5900</v>
       </c>
       <c r="H18" s="6">
         <v>0</v>
       </c>
-      <c r="I18" s="7">
-        <v>0</v>
-      </c>
-      <c r="J18" s="9">
+      <c r="I18" s="6">
+        <v>0</v>
+      </c>
+      <c r="J18" s="7">
+        <v>0</v>
+      </c>
+      <c r="K18" s="9">
         <v>476160</v>
       </c>
-      <c r="K18" s="11"/>
       <c r="L18" s="11"/>
-      <c r="M18" s="11">
-        <v>0</v>
-      </c>
+      <c r="M18" s="11"/>
       <c r="N18" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="O18" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>17</v>
       </c>
@@ -1700,33 +1767,36 @@
         <v>34</v>
       </c>
       <c r="E19" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="F19" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="F19" s="6">
-        <v>5900</v>
-      </c>
       <c r="G19" s="6">
-        <v>0</v>
+        <v>5900</v>
       </c>
       <c r="H19" s="6">
         <v>0</v>
       </c>
-      <c r="I19" s="7">
+      <c r="I19" s="6">
+        <v>0</v>
+      </c>
+      <c r="J19" s="7">
         <v>3</v>
       </c>
-      <c r="J19" s="9">
+      <c r="K19" s="9">
         <v>6046560</v>
       </c>
-      <c r="K19" s="11"/>
       <c r="L19" s="11"/>
-      <c r="M19" s="11">
-        <v>0</v>
-      </c>
+      <c r="M19" s="11"/>
       <c r="N19" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="O19" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>18</v>
       </c>
@@ -1740,33 +1810,36 @@
         <v>36</v>
       </c>
       <c r="E20" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="F20" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="F20" s="6">
-        <v>5900</v>
-      </c>
       <c r="G20" s="6">
-        <v>0</v>
+        <v>5900</v>
       </c>
       <c r="H20" s="6">
         <v>0</v>
       </c>
-      <c r="I20" s="7">
-        <v>0</v>
-      </c>
-      <c r="J20" s="9">
+      <c r="I20" s="6">
+        <v>0</v>
+      </c>
+      <c r="J20" s="7">
+        <v>0</v>
+      </c>
+      <c r="K20" s="9">
         <v>789960</v>
       </c>
-      <c r="K20" s="11"/>
       <c r="L20" s="11"/>
-      <c r="M20" s="11">
-        <v>0</v>
-      </c>
+      <c r="M20" s="11"/>
       <c r="N20" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="O20" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>19</v>
       </c>
@@ -1780,33 +1853,36 @@
         <v>38</v>
       </c>
       <c r="E21" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="F21" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F21" s="6">
-        <v>5900</v>
-      </c>
       <c r="G21" s="6">
-        <v>0</v>
+        <v>5900</v>
       </c>
       <c r="H21" s="6">
         <v>0</v>
       </c>
-      <c r="I21" s="7">
-        <v>0</v>
-      </c>
-      <c r="J21" s="9">
+      <c r="I21" s="6">
+        <v>0</v>
+      </c>
+      <c r="J21" s="7">
+        <v>0</v>
+      </c>
+      <c r="K21" s="9">
         <v>1230480</v>
       </c>
-      <c r="K21" s="11"/>
       <c r="L21" s="11"/>
-      <c r="M21" s="11">
-        <v>0</v>
-      </c>
+      <c r="M21" s="11"/>
       <c r="N21" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="O21" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>20</v>
       </c>
@@ -1820,33 +1896,36 @@
         <v>39</v>
       </c>
       <c r="E22" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="F22" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="F22" s="6">
-        <v>5900</v>
-      </c>
       <c r="G22" s="6">
-        <v>0</v>
+        <v>5900</v>
       </c>
       <c r="H22" s="6">
         <v>0</v>
       </c>
-      <c r="I22" s="7">
+      <c r="I22" s="6">
+        <v>0</v>
+      </c>
+      <c r="J22" s="7">
         <v>2</v>
       </c>
-      <c r="J22" s="9">
+      <c r="K22" s="9">
         <v>8560800</v>
       </c>
-      <c r="K22" s="11"/>
       <c r="L22" s="11"/>
-      <c r="M22" s="11">
-        <v>0</v>
-      </c>
+      <c r="M22" s="11"/>
       <c r="N22" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="O22" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>21</v>
       </c>
@@ -1860,33 +1939,36 @@
         <v>41</v>
       </c>
       <c r="E23" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="F23" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F23" s="6">
-        <v>5900</v>
-      </c>
       <c r="G23" s="6">
-        <v>0</v>
+        <v>5900</v>
       </c>
       <c r="H23" s="6">
         <v>0</v>
       </c>
-      <c r="I23" s="7">
+      <c r="I23" s="6">
+        <v>0</v>
+      </c>
+      <c r="J23" s="7">
         <v>1</v>
       </c>
-      <c r="J23" s="9">
+      <c r="K23" s="9">
         <v>2257200</v>
       </c>
-      <c r="K23" s="11"/>
       <c r="L23" s="11"/>
-      <c r="M23" s="11">
-        <v>0</v>
-      </c>
+      <c r="M23" s="11"/>
       <c r="N23" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="O23" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>22</v>
       </c>
@@ -1900,33 +1982,36 @@
         <v>42</v>
       </c>
       <c r="E24" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="F24" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F24" s="6">
-        <v>5900</v>
-      </c>
       <c r="G24" s="6">
-        <v>0</v>
+        <v>5900</v>
       </c>
       <c r="H24" s="6">
         <v>0</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I24" s="6">
+        <v>0</v>
+      </c>
+      <c r="J24" s="7">
         <v>2</v>
       </c>
-      <c r="J24" s="9">
+      <c r="K24" s="9">
         <v>745920</v>
       </c>
-      <c r="K24" s="11"/>
       <c r="L24" s="11"/>
-      <c r="M24" s="11">
-        <v>0</v>
-      </c>
+      <c r="M24" s="11"/>
       <c r="N24" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="O24" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>23</v>
       </c>
@@ -1940,33 +2025,36 @@
         <v>43</v>
       </c>
       <c r="E25" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="F25" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F25" s="6">
-        <v>5900</v>
-      </c>
       <c r="G25" s="6">
-        <v>0</v>
+        <v>5900</v>
       </c>
       <c r="H25" s="6">
         <v>0</v>
       </c>
-      <c r="I25" s="7">
+      <c r="I25" s="6">
+        <v>0</v>
+      </c>
+      <c r="J25" s="7">
         <v>3</v>
       </c>
-      <c r="J25" s="9">
+      <c r="K25" s="9">
         <v>1491840</v>
       </c>
-      <c r="K25" s="11"/>
       <c r="L25" s="11"/>
-      <c r="M25" s="11">
-        <v>0</v>
-      </c>
+      <c r="M25" s="11"/>
       <c r="N25" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="O25" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>24</v>
       </c>
@@ -1980,33 +2068,36 @@
         <v>44</v>
       </c>
       <c r="E26" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="F26" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F26" s="6">
-        <v>5900</v>
-      </c>
       <c r="G26" s="6">
-        <v>0</v>
+        <v>5900</v>
       </c>
       <c r="H26" s="6">
         <v>0</v>
       </c>
-      <c r="I26" s="7">
+      <c r="I26" s="6">
+        <v>0</v>
+      </c>
+      <c r="J26" s="7">
         <v>10</v>
       </c>
-      <c r="J26" s="9">
+      <c r="K26" s="9">
         <v>514800</v>
       </c>
-      <c r="K26" s="11"/>
       <c r="L26" s="11"/>
-      <c r="M26" s="11">
-        <v>0</v>
-      </c>
+      <c r="M26" s="11"/>
       <c r="N26" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="O26" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>25</v>
       </c>
@@ -2020,33 +2111,36 @@
         <v>45</v>
       </c>
       <c r="E27" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="F27" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="F27" s="6">
-        <v>5900</v>
-      </c>
       <c r="G27" s="6">
-        <v>0</v>
+        <v>5900</v>
       </c>
       <c r="H27" s="6">
         <v>0</v>
       </c>
-      <c r="I27" s="7">
+      <c r="I27" s="6">
+        <v>0</v>
+      </c>
+      <c r="J27" s="7">
         <v>8</v>
       </c>
-      <c r="J27" s="9">
+      <c r="K27" s="9">
         <v>10909920</v>
       </c>
-      <c r="K27" s="11"/>
       <c r="L27" s="11"/>
-      <c r="M27" s="11">
-        <v>0</v>
-      </c>
+      <c r="M27" s="11"/>
       <c r="N27" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="O27" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>26</v>
       </c>
@@ -2060,33 +2154,36 @@
         <v>46</v>
       </c>
       <c r="E28" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="F28" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="F28" s="6">
-        <v>5900</v>
-      </c>
       <c r="G28" s="6">
-        <v>0</v>
+        <v>5900</v>
       </c>
       <c r="H28" s="6">
         <v>0</v>
       </c>
-      <c r="I28" s="7">
+      <c r="I28" s="6">
+        <v>0</v>
+      </c>
+      <c r="J28" s="7">
         <v>8</v>
       </c>
-      <c r="J28" s="9">
+      <c r="K28" s="9">
         <v>15395520</v>
       </c>
-      <c r="K28" s="11"/>
       <c r="L28" s="11"/>
-      <c r="M28" s="11">
-        <v>0</v>
-      </c>
+      <c r="M28" s="11"/>
       <c r="N28" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="O28" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>27</v>
       </c>
@@ -2100,33 +2197,36 @@
         <v>47</v>
       </c>
       <c r="E29" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="F29" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F29" s="6">
-        <v>5900</v>
-      </c>
       <c r="G29" s="6">
-        <v>0</v>
+        <v>5900</v>
       </c>
       <c r="H29" s="6">
         <v>0</v>
       </c>
-      <c r="I29" s="7">
+      <c r="I29" s="6">
+        <v>0</v>
+      </c>
+      <c r="J29" s="7">
         <v>11</v>
       </c>
-      <c r="J29" s="9">
+      <c r="K29" s="9">
         <v>1599840</v>
       </c>
-      <c r="K29" s="11"/>
       <c r="L29" s="11"/>
-      <c r="M29" s="11">
-        <v>0</v>
-      </c>
+      <c r="M29" s="11"/>
       <c r="N29" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="O29" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>28</v>
       </c>
@@ -2140,33 +2240,36 @@
         <v>48</v>
       </c>
       <c r="E30" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="F30" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F30" s="6">
-        <v>5900</v>
-      </c>
       <c r="G30" s="6">
-        <v>0</v>
+        <v>5900</v>
       </c>
       <c r="H30" s="6">
         <v>0</v>
       </c>
-      <c r="I30" s="7">
+      <c r="I30" s="6">
+        <v>0</v>
+      </c>
+      <c r="J30" s="7">
         <v>2</v>
       </c>
-      <c r="J30" s="9">
+      <c r="K30" s="9">
         <v>374400</v>
       </c>
-      <c r="K30" s="11"/>
       <c r="L30" s="11"/>
-      <c r="M30" s="11">
-        <v>0</v>
-      </c>
+      <c r="M30" s="11"/>
       <c r="N30" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="O30" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>29</v>
       </c>
@@ -2180,33 +2283,36 @@
         <v>49</v>
       </c>
       <c r="E31" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="F31" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="F31" s="6">
-        <v>5900</v>
-      </c>
       <c r="G31" s="6">
-        <v>0</v>
+        <v>5900</v>
       </c>
       <c r="H31" s="6">
         <v>0</v>
       </c>
-      <c r="I31" s="7">
+      <c r="I31" s="6">
+        <v>0</v>
+      </c>
+      <c r="J31" s="7">
         <v>3</v>
       </c>
-      <c r="J31" s="9">
+      <c r="K31" s="9">
         <v>14108640</v>
       </c>
-      <c r="K31" s="11"/>
       <c r="L31" s="11"/>
-      <c r="M31" s="11">
-        <v>0</v>
-      </c>
+      <c r="M31" s="11"/>
       <c r="N31" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="O31" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>30</v>
       </c>
@@ -2220,33 +2326,36 @@
         <v>51</v>
       </c>
       <c r="E32" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="F32" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="F32" s="6">
-        <v>5900</v>
-      </c>
       <c r="G32" s="6">
-        <v>0</v>
+        <v>5900</v>
       </c>
       <c r="H32" s="6">
         <v>0</v>
       </c>
-      <c r="I32" s="7">
+      <c r="I32" s="6">
+        <v>0</v>
+      </c>
+      <c r="J32" s="7">
         <v>1</v>
       </c>
-      <c r="J32" s="9">
+      <c r="K32" s="9">
         <v>704400</v>
       </c>
-      <c r="K32" s="11"/>
       <c r="L32" s="11"/>
-      <c r="M32" s="11">
-        <v>0</v>
-      </c>
+      <c r="M32" s="11"/>
       <c r="N32" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="O32" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="13">
         <v>31</v>
       </c>
@@ -2259,34 +2368,37 @@
       <c r="D33" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="E33" s="14" t="s">
+      <c r="E33" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="F33" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="F33" s="15">
-        <v>5900</v>
-      </c>
       <c r="G33" s="15">
-        <v>0</v>
-      </c>
-      <c r="H33" s="6">
-        <v>0</v>
-      </c>
-      <c r="I33" s="16">
+        <v>5900</v>
+      </c>
+      <c r="H33" s="15">
+        <v>0</v>
+      </c>
+      <c r="I33" s="6">
+        <v>0</v>
+      </c>
+      <c r="J33" s="16">
         <v>3</v>
       </c>
-      <c r="J33" s="17">
+      <c r="K33" s="17">
         <v>2062800</v>
       </c>
-      <c r="K33" s="11"/>
       <c r="L33" s="11"/>
-      <c r="M33" s="11">
-        <v>0</v>
-      </c>
+      <c r="M33" s="11"/>
       <c r="N33" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="O33" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>32</v>
       </c>
@@ -2300,33 +2412,36 @@
         <v>55</v>
       </c>
       <c r="E34" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="F34" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F34" s="6">
-        <v>5900</v>
-      </c>
       <c r="G34" s="6">
-        <v>0</v>
+        <v>5900</v>
       </c>
       <c r="H34" s="6">
         <v>0</v>
       </c>
-      <c r="I34" s="7">
+      <c r="I34" s="6">
+        <v>0</v>
+      </c>
+      <c r="J34" s="7">
         <v>1</v>
       </c>
-      <c r="J34" s="9">
+      <c r="K34" s="9">
         <v>114000</v>
       </c>
-      <c r="K34" s="11"/>
       <c r="L34" s="11"/>
-      <c r="M34" s="11">
-        <v>0</v>
-      </c>
+      <c r="M34" s="11"/>
       <c r="N34" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="O34" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>33</v>
       </c>
@@ -2340,33 +2455,36 @@
         <v>56</v>
       </c>
       <c r="E35" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="F35" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F35" s="6">
-        <v>5900</v>
-      </c>
       <c r="G35" s="6">
-        <v>0</v>
+        <v>5900</v>
       </c>
       <c r="H35" s="6">
         <v>0</v>
       </c>
-      <c r="I35" s="7">
+      <c r="I35" s="6">
+        <v>0</v>
+      </c>
+      <c r="J35" s="7">
         <v>2</v>
       </c>
-      <c r="J35" s="9">
+      <c r="K35" s="9">
         <v>787200</v>
       </c>
-      <c r="K35" s="11"/>
       <c r="L35" s="11"/>
-      <c r="M35" s="11">
-        <v>0</v>
-      </c>
+      <c r="M35" s="11"/>
       <c r="N35" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="O35" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>34</v>
       </c>
@@ -2380,33 +2498,36 @@
         <v>57</v>
       </c>
       <c r="E36" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="F36" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F36" s="6">
-        <v>5900</v>
-      </c>
       <c r="G36" s="6">
-        <v>0</v>
+        <v>5900</v>
       </c>
       <c r="H36" s="6">
         <v>0</v>
       </c>
-      <c r="I36" s="7">
+      <c r="I36" s="6">
+        <v>0</v>
+      </c>
+      <c r="J36" s="7">
         <v>1</v>
       </c>
-      <c r="J36" s="9">
+      <c r="K36" s="9">
         <v>309600</v>
       </c>
-      <c r="K36" s="11"/>
       <c r="L36" s="11"/>
-      <c r="M36" s="11">
-        <v>0</v>
-      </c>
+      <c r="M36" s="11"/>
       <c r="N36" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="O36" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>35</v>
       </c>
@@ -2420,33 +2541,36 @@
         <v>58</v>
       </c>
       <c r="E37" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="F37" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F37" s="6">
-        <v>5900</v>
-      </c>
       <c r="G37" s="6">
-        <v>0</v>
+        <v>5900</v>
       </c>
       <c r="H37" s="6">
         <v>0</v>
       </c>
-      <c r="I37" s="7">
+      <c r="I37" s="6">
+        <v>0</v>
+      </c>
+      <c r="J37" s="7">
         <v>1</v>
       </c>
-      <c r="J37" s="9">
+      <c r="K37" s="9">
         <v>289200</v>
       </c>
-      <c r="K37" s="11"/>
       <c r="L37" s="11"/>
-      <c r="M37" s="11">
-        <v>0</v>
-      </c>
+      <c r="M37" s="11"/>
       <c r="N37" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="O37" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>36</v>
       </c>
@@ -2460,33 +2584,36 @@
         <v>59</v>
       </c>
       <c r="E38" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="F38" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F38" s="6">
-        <v>5900</v>
-      </c>
       <c r="G38" s="6">
-        <v>0</v>
+        <v>5900</v>
       </c>
       <c r="H38" s="6">
         <v>0</v>
       </c>
-      <c r="I38" s="7">
+      <c r="I38" s="6">
+        <v>0</v>
+      </c>
+      <c r="J38" s="7">
         <v>3</v>
       </c>
-      <c r="J38" s="9">
+      <c r="K38" s="9">
         <v>589800</v>
       </c>
-      <c r="K38" s="11"/>
       <c r="L38" s="11"/>
-      <c r="M38" s="11">
-        <v>0</v>
-      </c>
+      <c r="M38" s="11"/>
       <c r="N38" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="O38" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>37</v>
       </c>
@@ -2500,33 +2627,36 @@
         <v>60</v>
       </c>
       <c r="E39" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="F39" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F39" s="6">
-        <v>5900</v>
-      </c>
       <c r="G39" s="6">
-        <v>0</v>
+        <v>5900</v>
       </c>
       <c r="H39" s="6">
         <v>0</v>
       </c>
-      <c r="I39" s="7">
+      <c r="I39" s="6">
+        <v>0</v>
+      </c>
+      <c r="J39" s="7">
         <v>1</v>
       </c>
-      <c r="J39" s="9">
+      <c r="K39" s="9">
         <v>844795</v>
       </c>
-      <c r="K39" s="11"/>
       <c r="L39" s="11"/>
-      <c r="M39" s="11">
-        <v>0</v>
-      </c>
+      <c r="M39" s="11"/>
       <c r="N39" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="O39" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>38</v>
       </c>
@@ -2540,33 +2670,36 @@
         <v>61</v>
       </c>
       <c r="E40" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="F40" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F40" s="6">
-        <v>5900</v>
-      </c>
       <c r="G40" s="6">
-        <v>0</v>
+        <v>5900</v>
       </c>
       <c r="H40" s="6">
         <v>0</v>
       </c>
-      <c r="I40" s="7">
+      <c r="I40" s="6">
+        <v>0</v>
+      </c>
+      <c r="J40" s="7">
         <v>1</v>
       </c>
-      <c r="J40" s="9">
+      <c r="K40" s="9">
         <v>205800</v>
       </c>
-      <c r="K40" s="11"/>
       <c r="L40" s="11"/>
-      <c r="M40" s="11">
-        <v>0</v>
-      </c>
+      <c r="M40" s="11"/>
       <c r="N40" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="O40" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <v>39</v>
       </c>
@@ -2580,33 +2713,36 @@
         <v>62</v>
       </c>
       <c r="E41" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="F41" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F41" s="6">
-        <v>5900</v>
-      </c>
       <c r="G41" s="6">
-        <v>0</v>
+        <v>5900</v>
       </c>
       <c r="H41" s="6">
         <v>0</v>
       </c>
-      <c r="I41" s="7">
+      <c r="I41" s="6">
+        <v>0</v>
+      </c>
+      <c r="J41" s="7">
         <v>4</v>
       </c>
-      <c r="J41" s="9">
+      <c r="K41" s="9">
         <v>5139200</v>
       </c>
-      <c r="K41" s="11"/>
       <c r="L41" s="11"/>
-      <c r="M41" s="11">
-        <v>0</v>
-      </c>
+      <c r="M41" s="11"/>
       <c r="N41" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="O41" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <v>40</v>
       </c>
@@ -2620,35 +2756,38 @@
         <v>63</v>
       </c>
       <c r="E42" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="F42" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F42" s="6">
-        <v>5900</v>
-      </c>
       <c r="G42" s="6">
-        <v>0</v>
+        <v>5900</v>
       </c>
       <c r="H42" s="6">
         <v>0</v>
       </c>
-      <c r="I42" s="7">
-        <v>0</v>
-      </c>
-      <c r="J42" s="9">
+      <c r="I42" s="6">
+        <v>0</v>
+      </c>
+      <c r="J42" s="7">
+        <v>0</v>
+      </c>
+      <c r="K42" s="9">
         <v>932533</v>
       </c>
-      <c r="K42" s="11"/>
       <c r="L42" s="11"/>
-      <c r="M42" s="11">
-        <v>0</v>
-      </c>
+      <c r="M42" s="11"/>
       <c r="N42" s="11">
+        <v>0</v>
+      </c>
+      <c r="O42" s="11">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="A1:O1"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2688,256 +2827,256 @@
       <c r="F1" s="30"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="26" t="s">
         <v>95</v>
       </c>
-      <c r="C2" s="27" t="s">
+      <c r="C2" s="26" t="s">
         <v>96</v>
       </c>
-      <c r="D2" s="27" t="s">
+      <c r="D2" s="26" t="s">
         <v>99</v>
       </c>
-      <c r="E2" s="27" t="s">
+      <c r="E2" s="26" t="s">
         <v>97</v>
       </c>
-      <c r="F2" s="27" t="s">
+      <c r="F2" s="26" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="21">
+      <c r="A3" s="20">
         <v>1</v>
       </c>
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="21"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
     </row>
     <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="21">
+      <c r="A4" s="20">
         <v>2</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="D4" s="21"/>
-      <c r="E4" s="20" t="s">
+      <c r="D4" s="20"/>
+      <c r="E4" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="F4" s="20"/>
+      <c r="F4" s="19"/>
     </row>
     <row r="5" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A5" s="21">
+      <c r="A5" s="20">
         <v>3</v>
       </c>
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="D5" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="E5" s="20" t="s">
+      <c r="D5" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="E5" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="F5" s="20"/>
+      <c r="F5" s="19"/>
     </row>
     <row r="6" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A6" s="21">
+      <c r="A6" s="20">
         <v>4</v>
       </c>
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="E6" s="20" t="s">
+      <c r="D6" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="E6" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="F6" s="20"/>
+      <c r="F6" s="19"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="21">
+      <c r="A7" s="20">
         <v>5</v>
       </c>
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="E7" s="20" t="s">
+      <c r="D7" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="E7" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="F7" s="20"/>
+      <c r="F7" s="19"/>
     </row>
     <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="21">
+      <c r="A8" s="20">
         <v>6</v>
       </c>
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="C8" s="23" t="s">
+      <c r="C8" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="D8" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="E8" s="20" t="s">
+      <c r="D8" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="E8" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="F8" s="20"/>
+      <c r="F8" s="19"/>
     </row>
     <row r="9" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="21">
+      <c r="A9" s="20">
         <v>7</v>
       </c>
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="C9" s="23" t="s">
+      <c r="C9" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="D9" s="25"/>
-      <c r="E9" s="20" t="s">
+      <c r="D9" s="24"/>
+      <c r="E9" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="F9" s="20"/>
+      <c r="F9" s="19"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="21">
+      <c r="A10" s="20">
         <v>8</v>
       </c>
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="C10" s="23" t="s">
+      <c r="C10" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="D10" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="E10" s="20" t="s">
+      <c r="D10" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="E10" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="F10" s="20"/>
+      <c r="F10" s="19"/>
     </row>
     <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="21">
+      <c r="A11" s="20">
         <v>9</v>
       </c>
-      <c r="B11" s="21" t="s">
+      <c r="B11" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="C11" s="23" t="s">
+      <c r="C11" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="D11" s="25"/>
-      <c r="E11" s="20" t="s">
+      <c r="D11" s="24"/>
+      <c r="E11" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="F11" s="20"/>
+      <c r="F11" s="19"/>
     </row>
     <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="21">
+      <c r="A12" s="20">
         <v>10</v>
       </c>
-      <c r="B12" s="21" t="s">
+      <c r="B12" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="C12" s="24" t="s">
+      <c r="C12" s="23" t="s">
         <v>76</v>
       </c>
       <c r="D12" s="5"/>
-      <c r="E12" s="20" t="s">
+      <c r="E12" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="F12" s="20"/>
+      <c r="F12" s="19"/>
     </row>
     <row r="13" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="21">
+      <c r="A13" s="20">
         <v>11</v>
       </c>
-      <c r="B13" s="21" t="s">
+      <c r="B13" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="C13" s="24" t="s">
+      <c r="C13" s="23" t="s">
         <v>77</v>
       </c>
       <c r="D13" s="5"/>
-      <c r="E13" s="20" t="s">
+      <c r="E13" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="F13" s="20"/>
+      <c r="F13" s="19"/>
     </row>
     <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="21">
+      <c r="A14" s="20">
         <v>12</v>
       </c>
-      <c r="B14" s="21" t="s">
+      <c r="B14" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="C14" s="23" t="s">
+      <c r="C14" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="D14" s="25"/>
-      <c r="E14" s="20" t="s">
+      <c r="D14" s="24"/>
+      <c r="E14" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="F14" s="20"/>
+      <c r="F14" s="19"/>
     </row>
     <row r="15" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="21">
+      <c r="A15" s="20">
         <v>13</v>
       </c>
-      <c r="B15" s="21" t="s">
+      <c r="B15" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="C15" s="23" t="s">
+      <c r="C15" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="D15" s="25"/>
-      <c r="E15" s="20" t="s">
+      <c r="D15" s="24"/>
+      <c r="E15" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="F15" s="20"/>
+      <c r="F15" s="19"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="21">
+      <c r="A16" s="20">
         <v>14</v>
       </c>
-      <c r="B16" s="21" t="s">
+      <c r="B16" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="C16" s="23" t="s">
+      <c r="C16" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="25"/>
-      <c r="E16" s="20" t="s">
+      <c r="D16" s="24"/>
+      <c r="E16" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="F16" s="20"/>
+      <c r="F16" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="1">
